--- a/biology/Botanique/Jardin_Paule-Minck/Jardin_Paule-Minck.xlsx
+++ b/biology/Botanique/Jardin_Paule-Minck/Jardin_Paule-Minck.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le jardin Paule Minck est un espace vert du 20e arrondissement de Paris, dans le quartier Saint-Fargeau, inauguré à l'occasion des 150 ans de la Commune de Paris[1].
+Le jardin Paule Minck est un espace vert du 20e arrondissement de Paris, dans le quartier Saint-Fargeau, inauguré à l'occasion des 150 ans de la Commune de Paris.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le site est accessible par le 50, rue Saint-Fargeau.
 Il est desservi par la ligne 3 bis à la station station Saint-Fargeau et par les lignes 3 bis et 11 à la station Porte des Lilas.
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc rend hommage Paule Minck (1839-1901) par vote à l'unanimité du Conseil de Paris.
 </t>
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet espace vert a été créé en hommage à Paule Minck à l'occasion des 150 ans de la Commune de Paris, par décision du conseil municipal du 20e arrondissement et du Conseil de Paris[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet espace vert a été créé en hommage à Paule Minck à l'occasion des 150 ans de la Commune de Paris, par décision du conseil municipal du 20e arrondissement et du Conseil de Paris.
 </t>
         </is>
       </c>
